--- a/results/mp/logistic/corona/confidence/84/stop-words-desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-desired-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,18 +40,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -61,19 +61,22 @@
     <t>collapse</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
@@ -85,94 +88,106 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>share</t>
@@ -181,25 +196,19 @@
     <t>giving</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -557,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,7 +574,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
         <v>37</v>
@@ -626,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -676,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8695652173913043</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8648648648648649</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,16 +756,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8561643835616438</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C6">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8529411764705882</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +853,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,16 +906,16 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.9268929503916449</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L8">
-        <v>355</v>
+        <v>24</v>
       </c>
       <c r="M8">
-        <v>355</v>
+        <v>24</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7666666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.9230769230769231</v>
+        <v>0.9216710182767625</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>353</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>353</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5873015873015873</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C10">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10">
         <v>0.9090909090909091</v>
@@ -1026,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5555555555555556</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.9084507042253521</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5084745762711864</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.9069767441860465</v>
+        <v>0.8984375</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4709302325581395</v>
+        <v>0.4593023255813953</v>
       </c>
       <c r="C13">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D13">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.8936170212765957</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L13">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="M13">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4509803921568628</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.8928571428571429</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1226,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1946308724832215</v>
+        <v>0.36</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.890625</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,21 +1277,45 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.2080536912751678</v>
+      </c>
+      <c r="C16">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>118</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K16">
-        <v>0.88125</v>
+        <v>0.86875</v>
       </c>
       <c r="L16">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M16">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1294,21 +1327,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.8773584905660378</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1320,21 +1353,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1346,21 +1379,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.8611111111111112</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1372,21 +1405,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.8536585365853658</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1398,21 +1431,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.8214285714285714</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1429,7 +1462,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>0.8125</v>
@@ -1455,16 +1488,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.7777777777777778</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1476,21 +1509,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L24">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1502,21 +1535,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.7714285714285715</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1528,21 +1561,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L26">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1554,21 +1587,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1580,21 +1613,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
         <v>0.75</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>255</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1606,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.74</v>
+        <v>0.7389830508474576</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1632,21 +1665,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.7322175732217573</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="L30">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="M30">
-        <v>175</v>
+        <v>69</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1658,21 +1691,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.7288135593220338</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L31">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="M31">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1684,21 +1717,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.723404255319149</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L32">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1710,12 +1743,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>0.7037037037037037</v>
@@ -1741,16 +1774,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.6857142857142857</v>
+        <v>0.7</v>
       </c>
       <c r="L34">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1762,21 +1795,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.6666666666666666</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1788,21 +1821,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.6461538461538462</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L36">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1814,21 +1847,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.6404494382022472</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L37">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M37">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1840,21 +1873,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.5882352941176471</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1866,21 +1899,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.5714285714285714</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L39">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1892,21 +1925,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.4871794871794872</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="L40">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1918,21 +1951,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.4794520547945205</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1944,33 +1977,85 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.4222222222222222</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L42">
+        <v>39</v>
+      </c>
+      <c r="M42">
+        <v>39</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="L43">
+        <v>32</v>
+      </c>
+      <c r="M43">
+        <v>32</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44">
+        <v>0.296875</v>
+      </c>
+      <c r="L44">
         <v>19</v>
       </c>
-      <c r="M42">
+      <c r="M44">
         <v>19</v>
       </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>26</v>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
